--- a/app/data/tests/mascarpone/parameters.xlsx
+++ b/app/data/tests/mascarpone/parameters.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Скорость фасовки</t>
   </si>
   <si>
-    <t xml:space="preserve">Выход</t>
+    <t xml:space="preserve">Вход</t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент</t>
@@ -513,7 +513,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,7 +574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,6 +595,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +616,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -608,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S53" activeCellId="0" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,10 +819,10 @@
         <v>600</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0</v>
@@ -809,10 +887,10 @@
         <v>600</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>0</v>
@@ -877,10 +955,10 @@
         <v>1400</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>0</v>
@@ -945,10 +1023,10 @@
         <v>600</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>0</v>
@@ -1016,10 +1094,10 @@
         <v>600</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V6" s="0" t="n">
         <v>0</v>
@@ -1084,10 +1162,10 @@
         <v>600</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0</v>
@@ -1152,10 +1230,10 @@
         <v>600</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>0</v>
@@ -1220,10 +1298,10 @@
         <v>1400</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V9" s="0" t="n">
         <v>0</v>
@@ -1291,10 +1369,10 @@
         <v>600</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0</v>
@@ -1359,7 +1437,7 @@
         <v>1400</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>1</v>
@@ -1427,7 +1505,7 @@
         <v>600</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>1</v>
@@ -1495,7 +1573,7 @@
         <v>600</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
@@ -1563,10 +1641,10 @@
         <v>600</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0</v>
@@ -1631,10 +1709,10 @@
         <v>600</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>0</v>
@@ -1702,10 +1780,10 @@
         <v>600</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0</v>
@@ -1722,7 +1800,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>23</v>
@@ -1770,7 +1848,7 @@
         <v>1400</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>1</v>
@@ -1838,10 +1916,10 @@
         <v>600</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>0</v>
@@ -1906,7 +1984,7 @@
         <v>600</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>1</v>
@@ -1977,10 +2055,10 @@
         <v>1400</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>0</v>
@@ -2045,10 +2123,10 @@
         <v>200</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>0</v>
@@ -2113,10 +2191,10 @@
         <v>1400</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>0</v>
@@ -2181,10 +2259,10 @@
         <v>800</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V23" s="0" t="n">
         <v>0</v>
@@ -2249,10 +2327,10 @@
         <v>800</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>0</v>
@@ -2317,10 +2395,10 @@
         <v>800</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V25" s="0" t="n">
         <v>0</v>
@@ -2385,10 +2463,10 @@
         <v>800</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>0</v>
@@ -2397,139 +2475,139 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="0" t="s">
+      <c r="G27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2" t="n">
+      <c r="K27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T27" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0" t="s">
+      <c r="T27" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="G28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2" t="n">
+      <c r="K28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T28" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="0" t="s">
+      <c r="T28" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2589,10 +2667,10 @@
         <v>800</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V29" s="0" t="n">
         <v>0</v>
@@ -2657,10 +2735,10 @@
         <v>800</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
@@ -2725,10 +2803,10 @@
         <v>800</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>0</v>
@@ -2793,10 +2871,10 @@
         <v>700</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>0</v>
@@ -2864,10 +2942,10 @@
         <v>700</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V33" s="0" t="n">
         <v>0</v>
@@ -2935,10 +3013,10 @@
         <v>700</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V34" s="0" t="n">
         <v>0</v>
@@ -3006,10 +3084,10 @@
         <v>700</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V35" s="0" t="n">
         <v>0</v>
@@ -3074,10 +3152,10 @@
         <v>700</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V36" s="0" t="n">
         <v>0</v>
@@ -3086,71 +3164,71 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="G37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2" t="n">
+      <c r="K37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T37" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="0" t="s">
+      <c r="T37" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3210,10 +3288,10 @@
         <v>700</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>0</v>
@@ -3278,10 +3356,10 @@
         <v>800</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V39" s="0" t="n">
         <v>0</v>
@@ -3346,10 +3424,10 @@
         <v>800</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V40" s="0" t="n">
         <v>0</v>
@@ -3417,10 +3495,10 @@
         <v>700</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
@@ -3485,10 +3563,10 @@
         <v>800</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V42" s="0" t="n">
         <v>0</v>
@@ -3556,10 +3634,10 @@
         <v>700</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>0</v>
@@ -3568,71 +3646,71 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="0" t="s">
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2" t="n">
+      <c r="K44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T44" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="0" t="s">
+      <c r="T44" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3692,10 +3770,10 @@
         <v>700</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>0</v>
@@ -3763,10 +3841,10 @@
         <v>700</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>0</v>
@@ -3831,10 +3909,10 @@
         <v>800</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U47" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V47" s="0" t="n">
         <v>0</v>
@@ -3843,71 +3921,71 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="0" t="s">
+      <c r="G48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
+      <c r="K48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T48" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="0" t="s">
+      <c r="T48" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3970,10 +4048,10 @@
         <v>700</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U49" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>0</v>
@@ -4041,10 +4119,10 @@
         <v>700</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U50" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V50" s="0" t="n">
         <v>0</v>
@@ -4100,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>0</v>
@@ -4109,10 +4187,10 @@
         <v>200</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>0</v>
@@ -4121,142 +4199,142 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="s">
+    <row r="52" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="0" t="s">
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="K52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2" t="n">
+      <c r="K52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="T52" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U52" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="0" t="s">
+      <c r="T52" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U52" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="0" t="s">
+      <c r="G53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="K53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2" t="n">
+      <c r="K53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="T53" s="2" t="n">
-        <v>370</v>
-      </c>
-      <c r="U53" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" s="0" t="s">
+      <c r="T53" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U53" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="V53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="6" t="s">
         <v>150</v>
       </c>
     </row>
